--- a/kps.xlsx
+++ b/kps.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Hyderabad\CSF364 DA\DA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A93A2AF6-2536-4C30-B5F2-0B7D76954B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC17409-5B1C-4672-99F3-B1683838C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kps" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +801,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56</c:v>
@@ -810,19 +810,19 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,10 +1264,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14</c:v>
@@ -1279,16 +1279,16 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19</c:v>
@@ -1300,7 +1300,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17</c:v>
@@ -1357,7 +1357,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56</c:v>
@@ -1366,19 +1366,19 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,12 +2882,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Number of Points"/>
-    <tableColumn id="2" name="Number of Hull Points"/>
-    <tableColumn id="3" name="Time(ms)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number of Points"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Hull Points"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Time(ms)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3189,11 +3189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3263,7 +3263,7 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -3274,7 +3274,7 @@
         <v>300</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3318,7 +3318,7 @@
         <v>500</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -3329,7 +3329,7 @@
         <v>550</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>41</v>
@@ -3340,7 +3340,7 @@
         <v>600</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>29</v>
@@ -3351,10 +3351,10 @@
         <v>650</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3387,7 +3387,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3395,10 +3395,10 @@
         <v>850</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3420,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/kps.xlsx
+++ b/kps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Hyderabad\CSF364 DA\DA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC17409-5B1C-4672-99F3-B1683838C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA396FCD-DD77-418B-85D5-9E148A3953D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3192,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
